--- a/Pomodoro/Statistics/201502.xlsx
+++ b/Pomodoro/Statistics/201502.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="w3d6" sheetId="1" r:id="rId1"/>
     <sheet name="w4d0" sheetId="2" r:id="rId2"/>
     <sheet name="w4d1" sheetId="3" r:id="rId3"/>
+    <sheet name="w4d4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>Week</t>
   </si>
@@ -607,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,4 +701,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E8)</f>
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>